--- a/TrueAug_SymDiGCN__output.xlsx
+++ b/TrueAug_SymDiGCN__output.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Args" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Epoch" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -844,4 +845,37 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch_Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Epoch:0, time:2110.747376, test_Acc: 6.67, test_bacc: 10.00, test_f1: 1.25</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/TrueAug_SymDiGCN__output.xlsx
+++ b/TrueAug_SymDiGCN__output.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,89 +871,663 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:12, time:7.921316, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:94, time:8.402048, test_Acc: 27.18, test_bacc: 28.34, test_f1: 13.69</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:11, time:8.393327, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:93, time:8.686819, test_Acc: 27.18, test_bacc: 28.34, test_f1: 13.69</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:10, time:7.994046, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:92, time:10.089916, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:9, time:7.753503, test_Acc: 19.36, test_bacc: 20.95, test_f1: 13.11</t>
+          <t>Epoch:91, time:8.348358, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:8, time:7.927497, test_Acc: 18.13, test_bacc: 19.23, test_f1: 10.46</t>
+          <t>Epoch:90, time:8.065821, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:7, time:9.020807, test_Acc: 15.58, test_bacc: 14.33, test_f1: 3.95</t>
+          <t>Epoch:89, time:8.551640, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:6, time:8.882394, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:88, time:8.441271, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:5, time:7.846581, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:87, time:8.756025, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:4, time:7.772851, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:86, time:8.604891, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:3, time:7.677287, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:85, time:8.764158, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:2, time:7.819345, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:84, time:9.408877, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:1, time:7.824869, test_Acc: 9.43, test_bacc: 14.29, test_f1: 2.46</t>
+          <t>Epoch:83, time:11.098995, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
+        <is>
+          <t>Epoch:82, time:8.643025, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Epoch:81, time:8.274598, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Epoch:80, time:8.074517, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Epoch:79, time:7.995559, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Epoch:78, time:8.073586, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Epoch:77, time:8.256094, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Epoch:76, time:9.180061, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Epoch:75, time:8.051239, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Epoch:74, time:8.452945, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Epoch:73, time:8.216449, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Epoch:72, time:8.945655, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Epoch:71, time:8.569717, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Epoch:70, time:9.177683, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Epoch:69, time:8.809134, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Epoch:68, time:7.626759, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Epoch:67, time:7.736089, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Epoch:66, time:7.726220, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Epoch:65, time:7.763314, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Epoch:64, time:8.044817, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Epoch:63, time:8.831706, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Epoch:62, time:8.545436, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Epoch:61, time:10.221123, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Epoch:60, time:7.866295, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Epoch:59, time:8.214722, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Epoch:58, time:8.159689, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Epoch:57, time:8.094499, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Epoch:56, time:7.715526, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Epoch:55, time:7.790752, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Epoch:54, time:8.239858, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Epoch:53, time:8.422802, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Epoch:52, time:8.575049, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Epoch:51, time:7.552891, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Epoch:50, time:7.665336, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Epoch:49, time:8.484689, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Epoch:48, time:8.662974, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Epoch:47, time:8.412451, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Epoch:46, time:8.338923, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Epoch:45, time:7.625454, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Epoch:44, time:7.801867, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Epoch:43, time:8.232316, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Epoch:42, time:8.686639, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Epoch:41, time:8.941876, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Epoch:40, time:8.655233, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Epoch:39, time:8.723463, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Epoch:38, time:8.257322, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Epoch:37, time:7.790020, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Epoch:36, time:8.771058, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Epoch:35, time:7.654819, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Epoch:34, time:8.469749, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Epoch:33, time:8.038040, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Epoch:32, time:8.203414, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Epoch:31, time:7.568131, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Epoch:30, time:7.570894, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Epoch:29, time:7.518495, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Epoch:28, time:7.756793, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Epoch:27, time:7.666971, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Epoch:26, time:7.913504, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Epoch:25, time:8.036466, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Epoch:24, time:7.908440, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Epoch:23, time:8.573227, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Epoch:22, time:7.765107, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Epoch:21, time:7.867740, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Epoch:20, time:8.789493, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Epoch:19, time:8.967860, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Epoch:18, time:8.076244, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Epoch:17, time:7.710518, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Epoch:16, time:8.207916, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Epoch:15, time:8.484252, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Epoch:14, time:7.719910, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Epoch:13, time:7.677082, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Epoch:12, time:7.921316, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Epoch:11, time:8.393327, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Epoch:10, time:7.994046, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Epoch:9, time:7.753503, test_Acc: 19.36, test_bacc: 20.95, test_f1: 13.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Epoch:8, time:7.927497, test_Acc: 18.13, test_bacc: 19.23, test_f1: 10.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Epoch:7, time:9.020807, test_Acc: 15.58, test_bacc: 14.33, test_f1: 3.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Epoch:6, time:8.882394, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Epoch:5, time:7.846581, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Epoch:4, time:7.772851, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Epoch:3, time:7.677287, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Epoch:2, time:7.819345, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Epoch:1, time:7.824869, test_Acc: 9.43, test_bacc: 14.29, test_f1: 2.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
         <is>
           <t>Epoch:0, time:8.963158, test_Acc: 9.43, test_bacc: 14.29, test_f1: 2.46</t>
         </is>

--- a/TrueAug_SymDiGCN__output.xlsx
+++ b/TrueAug_SymDiGCN__output.xlsx
@@ -853,7 +853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A96"/>
+  <dimension ref="A1:A146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -871,663 +871,1013 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:94, time:8.402048, test_Acc: 27.18, test_bacc: 28.34, test_f1: 13.69</t>
+          <t>Epoch:144, time:19.467365, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:93, time:8.686819, test_Acc: 27.18, test_bacc: 28.34, test_f1: 13.69</t>
+          <t>Epoch:143, time:14.501355, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:92, time:10.089916, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:142, time:18.770794, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:91, time:8.348358, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:141, time:13.117569, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:90, time:8.065821, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:140, time:12.090191, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:89, time:8.551640, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:139, time:11.018645, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:88, time:8.441271, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:138, time:15.216767, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:87, time:8.756025, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:137, time:15.567079, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:86, time:8.604891, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:136, time:12.731223, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:85, time:8.764158, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:135, time:10.071799, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:84, time:9.408877, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:134, time:11.986863, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:83, time:11.098995, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:133, time:8.000509, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Epoch:82, time:8.643025, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:132, time:8.271417, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Epoch:81, time:8.274598, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:131, time:7.562827, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Epoch:80, time:8.074517, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:130, time:7.544191, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epoch:79, time:7.995559, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:129, time:7.669468, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epoch:78, time:8.073586, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:128, time:8.389364, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Epoch:77, time:8.256094, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:127, time:7.648654, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Epoch:76, time:9.180061, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:126, time:7.806282, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epoch:75, time:8.051239, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:125, time:7.794163, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Epoch:74, time:8.452945, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:124, time:8.509155, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Epoch:73, time:8.216449, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:123, time:7.716260, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Epoch:72, time:8.945655, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:122, time:7.956297, test_Acc: 33.50, test_bacc: 34.33, test_f1: 25.24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Epoch:71, time:8.569717, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:121, time:7.718560, test_Acc: 33.50, test_bacc: 34.33, test_f1: 25.24</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Epoch:70, time:9.177683, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:120, time:7.470860, test_Acc: 33.50, test_bacc: 34.33, test_f1: 25.24</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Epoch:69, time:8.809134, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:119, time:7.588682, test_Acc: 33.50, test_bacc: 34.33, test_f1: 25.24</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Epoch:68, time:7.626759, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:118, time:8.097275, test_Acc: 31.46, test_bacc: 32.65, test_f1: 21.85</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Epoch:67, time:7.736089, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:117, time:7.462514, test_Acc: 31.46, test_bacc: 32.65, test_f1: 21.85</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Epoch:66, time:7.726220, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:116, time:9.120707, test_Acc: 30.57, test_bacc: 31.78, test_f1: 19.67</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Epoch:65, time:7.763314, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:115, time:8.616443, test_Acc: 30.57, test_bacc: 31.78, test_f1: 19.67</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Epoch:64, time:8.044817, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:114, time:8.603986, test_Acc: 30.57, test_bacc: 31.78, test_f1: 19.67</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Epoch:63, time:8.831706, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:113, time:8.261402, test_Acc: 30.57, test_bacc: 31.78, test_f1: 19.67</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Epoch:62, time:8.545436, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:112, time:9.177160, test_Acc: 30.57, test_bacc: 31.78, test_f1: 19.67</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Epoch:61, time:10.221123, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:111, time:7.946507, test_Acc: 30.57, test_bacc: 31.78, test_f1: 19.67</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Epoch:60, time:7.866295, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:110, time:8.472634, test_Acc: 29.51, test_bacc: 30.77, test_f1: 18.35</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Epoch:59, time:8.214722, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:109, time:7.918628, test_Acc: 29.51, test_bacc: 30.77, test_f1: 18.35</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Epoch:58, time:8.159689, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:108, time:7.938517, test_Acc: 29.51, test_bacc: 30.77, test_f1: 18.35</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Epoch:57, time:8.094499, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:107, time:8.196441, test_Acc: 29.17, test_bacc: 30.32, test_f1: 17.45</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Epoch:56, time:7.715526, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:106, time:7.964763, test_Acc: 29.00, test_bacc: 30.18, test_f1: 16.80</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Epoch:55, time:7.790752, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:105, time:8.779370, test_Acc: 29.00, test_bacc: 30.18, test_f1: 16.80</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Epoch:54, time:8.239858, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:104, time:8.425316, test_Acc: 27.94, test_bacc: 29.11, test_f1: 14.45</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Epoch:53, time:8.422802, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:103, time:7.744196, test_Acc: 27.94, test_bacc: 29.11, test_f1: 14.45</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Epoch:52, time:8.575049, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:102, time:8.323287, test_Acc: 27.94, test_bacc: 29.11, test_f1: 14.45</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Epoch:51, time:7.552891, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:101, time:8.358179, test_Acc: 27.94, test_bacc: 29.11, test_f1: 14.45</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Epoch:50, time:7.665336, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:100, time:8.947762, test_Acc: 27.94, test_bacc: 29.11, test_f1: 14.45</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Epoch:49, time:8.484689, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:99, time:8.637096, test_Acc: 27.94, test_bacc: 29.11, test_f1: 14.45</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Epoch:48, time:8.662974, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:98, time:8.623080, test_Acc: 27.94, test_bacc: 29.11, test_f1: 14.45</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Epoch:47, time:8.412451, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:97, time:8.588906, test_Acc: 27.94, test_bacc: 29.11, test_f1: 14.45</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Epoch:46, time:8.338923, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:96, time:9.695995, test_Acc: 27.26, test_bacc: 28.41, test_f1: 13.87</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Epoch:45, time:7.625454, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:95, time:8.250087, test_Acc: 27.26, test_bacc: 28.41, test_f1: 13.87</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Epoch:44, time:7.801867, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:94, time:8.402048, test_Acc: 27.18, test_bacc: 28.34, test_f1: 13.69</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Epoch:43, time:8.232316, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:93, time:8.686819, test_Acc: 27.18, test_bacc: 28.34, test_f1: 13.69</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Epoch:42, time:8.686639, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:92, time:10.089916, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Epoch:41, time:8.941876, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:91, time:8.348358, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Epoch:40, time:8.655233, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:90, time:8.065821, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Epoch:39, time:8.723463, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:89, time:8.551640, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Epoch:38, time:8.257322, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:88, time:8.441271, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Epoch:37, time:7.790020, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:87, time:8.756025, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Epoch:36, time:8.771058, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:86, time:8.604891, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Epoch:35, time:7.654819, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:85, time:8.764158, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Epoch:34, time:8.469749, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:84, time:9.408877, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Epoch:33, time:8.038040, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:83, time:11.098995, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Epoch:32, time:8.203414, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:82, time:8.643025, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Epoch:31, time:7.568131, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:81, time:8.274598, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Epoch:30, time:7.570894, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:80, time:8.074517, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Epoch:29, time:7.518495, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:79, time:7.995559, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Epoch:28, time:7.756793, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:78, time:8.073586, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Epoch:27, time:7.666971, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:77, time:8.256094, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Epoch:26, time:7.913504, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:76, time:9.180061, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Epoch:25, time:8.036466, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:75, time:8.051239, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Epoch:24, time:7.908440, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:74, time:8.452945, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Epoch:23, time:8.573227, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:73, time:8.216449, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Epoch:22, time:7.765107, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:72, time:8.945655, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Epoch:21, time:7.867740, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:71, time:8.569717, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Epoch:20, time:8.789493, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:70, time:9.177683, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Epoch:19, time:8.967860, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:69, time:8.809134, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Epoch:18, time:8.076244, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:68, time:7.626759, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Epoch:17, time:7.710518, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:67, time:7.736089, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Epoch:16, time:8.207916, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:66, time:7.726220, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Epoch:15, time:8.484252, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:65, time:7.763314, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Epoch:14, time:7.719910, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:64, time:8.044817, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Epoch:13, time:7.677082, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:63, time:8.831706, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Epoch:12, time:7.921316, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:62, time:8.545436, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Epoch:11, time:8.393327, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:61, time:10.221123, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Epoch:10, time:7.994046, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:60, time:7.866295, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Epoch:9, time:7.753503, test_Acc: 19.36, test_bacc: 20.95, test_f1: 13.11</t>
+          <t>Epoch:59, time:8.214722, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Epoch:8, time:7.927497, test_Acc: 18.13, test_bacc: 19.23, test_f1: 10.46</t>
+          <t>Epoch:58, time:8.159689, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Epoch:7, time:9.020807, test_Acc: 15.58, test_bacc: 14.33, test_f1: 3.95</t>
+          <t>Epoch:57, time:8.094499, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Epoch:6, time:8.882394, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:56, time:7.715526, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Epoch:5, time:7.846581, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:55, time:7.790752, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Epoch:4, time:7.772851, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:54, time:8.239858, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Epoch:3, time:7.677287, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:53, time:8.422802, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Epoch:2, time:7.819345, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:52, time:8.575049, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Epoch:1, time:7.824869, test_Acc: 9.43, test_bacc: 14.29, test_f1: 2.46</t>
+          <t>Epoch:51, time:7.552891, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
+        <is>
+          <t>Epoch:50, time:7.665336, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Epoch:49, time:8.484689, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Epoch:48, time:8.662974, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Epoch:47, time:8.412451, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Epoch:46, time:8.338923, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Epoch:45, time:7.625454, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Epoch:44, time:7.801867, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Epoch:43, time:8.232316, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Epoch:42, time:8.686639, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Epoch:41, time:8.941876, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Epoch:40, time:8.655233, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Epoch:39, time:8.723463, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Epoch:38, time:8.257322, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Epoch:37, time:7.790020, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Epoch:36, time:8.771058, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Epoch:35, time:7.654819, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Epoch:34, time:8.469749, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Epoch:33, time:8.038040, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Epoch:32, time:8.203414, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Epoch:31, time:7.568131, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Epoch:30, time:7.570894, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Epoch:29, time:7.518495, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Epoch:28, time:7.756793, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Epoch:27, time:7.666971, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Epoch:26, time:7.913504, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Epoch:25, time:8.036466, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Epoch:24, time:7.908440, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Epoch:23, time:8.573227, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Epoch:22, time:7.765107, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Epoch:21, time:7.867740, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Epoch:20, time:8.789493, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Epoch:19, time:8.967860, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Epoch:18, time:8.076244, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Epoch:17, time:7.710518, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Epoch:16, time:8.207916, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Epoch:15, time:8.484252, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Epoch:14, time:7.719910, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Epoch:13, time:7.677082, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Epoch:12, time:7.921316, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Epoch:11, time:8.393327, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Epoch:10, time:7.994046, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Epoch:9, time:7.753503, test_Acc: 19.36, test_bacc: 20.95, test_f1: 13.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Epoch:8, time:7.927497, test_Acc: 18.13, test_bacc: 19.23, test_f1: 10.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Epoch:7, time:9.020807, test_Acc: 15.58, test_bacc: 14.33, test_f1: 3.95</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Epoch:6, time:8.882394, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Epoch:5, time:7.846581, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Epoch:4, time:7.772851, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Epoch:3, time:7.677287, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Epoch:2, time:7.819345, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Epoch:1, time:7.824869, test_Acc: 9.43, test_bacc: 14.29, test_f1: 2.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>Epoch:0, time:8.963158, test_Acc: 9.43, test_bacc: 14.29, test_f1: 2.46</t>
         </is>

--- a/TrueAug_SymDiGCN__output.xlsx
+++ b/TrueAug_SymDiGCN__output.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Args" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Epoch" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Split" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Epoch" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -853,7 +854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A146"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,1022 +865,2063 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Epoch_Output</t>
+          <t>Split_Output</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:144, time:19.467365, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>split: 7, test_Acc: 35.16, test_bacc: 37.50, test_f1: 29.22</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:143, time:14.501355, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>split: 6, test_Acc: 28.41, test_bacc: 30.80, test_f1: 19.81</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:142, time:18.770794, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>split: 5, test_Acc: 34.35, test_bacc: 29.22, test_f1: 27.52</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:141, time:13.117569, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>split: 4, test_Acc: 25.35, test_bacc: 27.44, test_f1: 22.04</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:140, time:12.090191, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>split: 3, test_Acc: 34.61, test_bacc: 33.17, test_f1: 28.89</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:139, time:11.018645, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>split: 2, test_Acc: 30.32, test_bacc: 32.43, test_f1: 21.80</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:138, time:15.216767, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>split: 1, test_Acc: 21.61, test_bacc: 25.17, test_f1: 17.93</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:137, time:15.567079, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>split: 0, test_Acc: 35.29, test_bacc: 37.35, test_f1: 30.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A283"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Epoch_Output</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Epoch:281, time:7.944727, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Epoch:280, time:8.284593, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Epoch:279, time:7.596727, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Epoch:278, time:7.347089, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Epoch:277, time:8.033129, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Epoch:276, time:7.456088, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Epoch:275, time:7.660260, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Epoch:274, time:7.274782, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:136, time:12.731223, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>Epoch:273, time:7.477084, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:135, time:10.071799, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>Epoch:272, time:7.302798, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:134, time:11.986863, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>Epoch:271, time:7.581223, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:133, time:8.000509, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>Epoch:270, time:7.285403, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Epoch:132, time:8.271417, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>Epoch:269, time:7.430177, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Epoch:131, time:7.562827, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>Epoch:268, time:8.503070, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Epoch:130, time:7.544191, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>Epoch:267, time:7.599266, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epoch:129, time:7.669468, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>Epoch:266, time:7.678020, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epoch:128, time:8.389364, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>Epoch:265, time:8.459290, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Epoch:127, time:7.648654, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>Epoch:264, time:7.396764, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Epoch:126, time:7.806282, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>Epoch:263, time:7.400282, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epoch:125, time:7.794163, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>Epoch:262, time:7.416264, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Epoch:124, time:8.509155, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>Epoch:261, time:8.229948, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Epoch:123, time:7.716260, test_Acc: 33.08, test_bacc: 34.08, test_f1: 25.07</t>
+          <t>Epoch:260, time:7.832882, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Epoch:122, time:7.956297, test_Acc: 33.50, test_bacc: 34.33, test_f1: 25.24</t>
+          <t>Epoch:259, time:7.552983, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Epoch:121, time:7.718560, test_Acc: 33.50, test_bacc: 34.33, test_f1: 25.24</t>
+          <t>Epoch:258, time:7.420169, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Epoch:120, time:7.470860, test_Acc: 33.50, test_bacc: 34.33, test_f1: 25.24</t>
+          <t>Epoch:257, time:7.376043, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Epoch:119, time:7.588682, test_Acc: 33.50, test_bacc: 34.33, test_f1: 25.24</t>
+          <t>Epoch:256, time:7.870480, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Epoch:118, time:8.097275, test_Acc: 31.46, test_bacc: 32.65, test_f1: 21.85</t>
+          <t>Epoch:255, time:8.347253, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Epoch:117, time:7.462514, test_Acc: 31.46, test_bacc: 32.65, test_f1: 21.85</t>
+          <t>Epoch:254, time:7.976235, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Epoch:116, time:9.120707, test_Acc: 30.57, test_bacc: 31.78, test_f1: 19.67</t>
+          <t>Epoch:253, time:7.334935, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Epoch:115, time:8.616443, test_Acc: 30.57, test_bacc: 31.78, test_f1: 19.67</t>
+          <t>Epoch:252, time:8.754719, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Epoch:114, time:8.603986, test_Acc: 30.57, test_bacc: 31.78, test_f1: 19.67</t>
+          <t>Epoch:251, time:7.736198, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Epoch:113, time:8.261402, test_Acc: 30.57, test_bacc: 31.78, test_f1: 19.67</t>
+          <t>Epoch:250, time:8.344738, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Epoch:112, time:9.177160, test_Acc: 30.57, test_bacc: 31.78, test_f1: 19.67</t>
+          <t>Epoch:249, time:7.685336, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Epoch:111, time:7.946507, test_Acc: 30.57, test_bacc: 31.78, test_f1: 19.67</t>
+          <t>Epoch:248, time:7.292763, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Epoch:110, time:8.472634, test_Acc: 29.51, test_bacc: 30.77, test_f1: 18.35</t>
+          <t>Epoch:247, time:7.347035, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Epoch:109, time:7.918628, test_Acc: 29.51, test_bacc: 30.77, test_f1: 18.35</t>
+          <t>Epoch:246, time:8.337796, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Epoch:108, time:7.938517, test_Acc: 29.51, test_bacc: 30.77, test_f1: 18.35</t>
+          <t>Epoch:245, time:7.576117, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Epoch:107, time:8.196441, test_Acc: 29.17, test_bacc: 30.32, test_f1: 17.45</t>
+          <t>Epoch:244, time:7.392771, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Epoch:106, time:7.964763, test_Acc: 29.00, test_bacc: 30.18, test_f1: 16.80</t>
+          <t>Epoch:243, time:8.136128, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Epoch:105, time:8.779370, test_Acc: 29.00, test_bacc: 30.18, test_f1: 16.80</t>
+          <t>Epoch:242, time:8.310434, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Epoch:104, time:8.425316, test_Acc: 27.94, test_bacc: 29.11, test_f1: 14.45</t>
+          <t>Epoch:241, time:7.359111, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Epoch:103, time:7.744196, test_Acc: 27.94, test_bacc: 29.11, test_f1: 14.45</t>
+          <t>Epoch:240, time:8.546011, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Epoch:102, time:8.323287, test_Acc: 27.94, test_bacc: 29.11, test_f1: 14.45</t>
+          <t>Epoch:239, time:8.425977, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Epoch:101, time:8.358179, test_Acc: 27.94, test_bacc: 29.11, test_f1: 14.45</t>
+          <t>Epoch:238, time:8.438877, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Epoch:100, time:8.947762, test_Acc: 27.94, test_bacc: 29.11, test_f1: 14.45</t>
+          <t>Epoch:237, time:8.328366, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Epoch:99, time:8.637096, test_Acc: 27.94, test_bacc: 29.11, test_f1: 14.45</t>
+          <t>Epoch:236, time:8.489011, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Epoch:98, time:8.623080, test_Acc: 27.94, test_bacc: 29.11, test_f1: 14.45</t>
+          <t>Epoch:235, time:7.952036, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Epoch:97, time:8.588906, test_Acc: 27.94, test_bacc: 29.11, test_f1: 14.45</t>
+          <t>Epoch:234, time:7.856030, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Epoch:96, time:9.695995, test_Acc: 27.26, test_bacc: 28.41, test_f1: 13.87</t>
+          <t>Epoch:233, time:7.960832, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Epoch:95, time:8.250087, test_Acc: 27.26, test_bacc: 28.41, test_f1: 13.87</t>
+          <t>Epoch:232, time:7.752723, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Epoch:94, time:8.402048, test_Acc: 27.18, test_bacc: 28.34, test_f1: 13.69</t>
+          <t>Epoch:231, time:7.333187, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Epoch:93, time:8.686819, test_Acc: 27.18, test_bacc: 28.34, test_f1: 13.69</t>
+          <t>Epoch:230, time:7.403958, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Epoch:92, time:10.089916, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:229, time:7.314944, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Epoch:91, time:8.348358, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:228, time:7.460933, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Epoch:90, time:8.065821, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:227, time:7.346335, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Epoch:89, time:8.551640, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:226, time:7.353229, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Epoch:88, time:8.441271, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:225, time:8.409116, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Epoch:87, time:8.756025, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:224, time:7.490950, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Epoch:86, time:8.604891, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:223, time:7.489442, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Epoch:85, time:8.764158, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:222, time:7.772882, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Epoch:84, time:9.408877, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:221, time:8.059722, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Epoch:83, time:11.098995, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:220, time:7.739002, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Epoch:82, time:8.643025, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:219, time:7.668053, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Epoch:81, time:8.274598, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:218, time:7.551169, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Epoch:80, time:8.074517, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:217, time:7.393038, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Epoch:79, time:7.995559, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:216, time:7.511961, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Epoch:78, time:8.073586, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:215, time:7.684213, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Epoch:77, time:8.256094, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:214, time:8.351655, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Epoch:76, time:9.180061, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:213, time:8.834270, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Epoch:75, time:8.051239, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:212, time:8.147070, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Epoch:74, time:8.452945, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:211, time:7.287980, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Epoch:73, time:8.216449, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:210, time:8.140717, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Epoch:72, time:8.945655, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:209, time:8.356386, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Epoch:71, time:8.569717, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:208, time:7.435499, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Epoch:70, time:9.177683, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:207, time:8.493588, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Epoch:69, time:8.809134, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:206, time:8.517567, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Epoch:68, time:7.626759, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:205, time:8.321052, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Epoch:67, time:7.736089, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:204, time:8.488321, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Epoch:66, time:7.726220, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:203, time:8.404794, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Epoch:65, time:7.763314, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:202, time:8.590406, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Epoch:64, time:8.044817, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:201, time:7.467541, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Epoch:63, time:8.831706, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:200, time:7.319421, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Epoch:62, time:8.545436, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:199, time:8.302233, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Epoch:61, time:10.221123, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:198, time:7.332421, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Epoch:60, time:7.866295, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:197, time:7.372886, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Epoch:59, time:8.214722, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:196, time:7.366851, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Epoch:58, time:8.159689, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:195, time:7.571786, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Epoch:57, time:8.094499, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:194, time:8.353170, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Epoch:56, time:7.715526, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:193, time:7.752353, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Epoch:55, time:7.790752, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:192, time:9.048840, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Epoch:54, time:8.239858, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:191, time:7.983793, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Epoch:53, time:8.422802, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:190, time:7.833289, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Epoch:52, time:8.575049, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:189, time:8.525432, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Epoch:51, time:7.552891, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:188, time:8.131513, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Epoch:50, time:7.665336, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:187, time:8.387595, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Epoch:49, time:8.484689, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:186, time:7.560785, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Epoch:48, time:8.662974, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:185, time:7.463834, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Epoch:47, time:8.412451, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:184, time:7.812152, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Epoch:46, time:8.338923, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:183, time:7.760323, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Epoch:45, time:7.625454, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:182, time:7.403214, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Epoch:44, time:7.801867, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:181, time:7.554251, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Epoch:43, time:8.232316, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:180, time:8.225263, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Epoch:42, time:8.686639, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:179, time:7.518517, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Epoch:41, time:8.941876, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:178, time:8.113386, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Epoch:40, time:8.655233, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:177, time:7.536056, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Epoch:39, time:8.723463, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:176, time:7.588797, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Epoch:38, time:8.257322, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:175, time:7.671018, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Epoch:37, time:7.790020, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:174, time:8.901562, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Epoch:36, time:8.771058, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:173, time:8.613297, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Epoch:35, time:7.654819, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:172, time:8.084767, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Epoch:34, time:8.469749, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:171, time:7.490216, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Epoch:33, time:8.038040, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:170, time:7.533472, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Epoch:32, time:8.203414, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:169, time:8.205357, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Epoch:31, time:7.568131, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:168, time:7.644615, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Epoch:30, time:7.570894, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:167, time:7.974545, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Epoch:29, time:7.518495, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:166, time:8.142257, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Epoch:28, time:7.756793, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:165, time:8.196577, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Epoch:27, time:7.666971, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:164, time:8.001378, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Epoch:26, time:7.913504, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:163, time:7.410124, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Epoch:25, time:8.036466, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:162, time:8.250355, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Epoch:24, time:7.908440, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:161, time:7.397655, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Epoch:23, time:8.573227, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:160, time:7.224452, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Epoch:22, time:7.765107, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:159, time:7.485096, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Epoch:21, time:7.867740, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:158, time:7.381714, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Epoch:20, time:8.789493, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:157, time:8.001733, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Epoch:19, time:8.967860, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:156, time:8.374091, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Epoch:18, time:8.076244, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:155, time:8.455780, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Epoch:17, time:7.710518, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:154, time:8.405121, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Epoch:16, time:8.207916, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:153, time:7.455284, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Epoch:15, time:8.484252, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:152, time:7.304935, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Epoch:14, time:7.719910, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:151, time:8.400454, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Epoch:13, time:7.677082, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:150, time:8.615268, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Epoch:12, time:7.921316, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:149, time:8.300552, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Epoch:11, time:8.393327, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:148, time:8.014552, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Epoch:10, time:7.994046, test_Acc: 23.78, test_bacc: 24.76, test_f1: 15.29</t>
+          <t>Epoch:147, time:8.173190, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Epoch:9, time:7.753503, test_Acc: 19.36, test_bacc: 20.95, test_f1: 13.11</t>
+          <t>Epoch:146, time:8.114810, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Epoch:8, time:7.927497, test_Acc: 18.13, test_bacc: 19.23, test_f1: 10.46</t>
+          <t>Epoch:145, time:8.307957, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Epoch:7, time:9.020807, test_Acc: 15.58, test_bacc: 14.33, test_f1: 3.95</t>
+          <t>Epoch:144, time:8.759043, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Epoch:6, time:8.882394, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:143, time:8.377756, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Epoch:5, time:7.846581, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:142, time:8.259590, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Epoch:4, time:7.772851, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:141, time:8.566559, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Epoch:3, time:7.677287, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:140, time:7.761034, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Epoch:2, time:7.819345, test_Acc: 15.54, test_bacc: 14.29, test_f1: 3.84</t>
+          <t>Epoch:139, time:7.541271, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Epoch:1, time:7.824869, test_Acc: 9.43, test_bacc: 14.29, test_f1: 2.46</t>
+          <t>Epoch:138, time:7.630104, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Epoch:0, time:8.963158, test_Acc: 9.43, test_bacc: 14.29, test_f1: 2.46</t>
+          <t>Epoch:137, time:7.587210, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Epoch:136, time:7.421285, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Epoch:135, time:7.754940, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Epoch:134, time:9.197217, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Epoch:133, time:10.463316, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Epoch:132, time:10.364007, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Epoch:131, time:9.279389, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Epoch:130, time:9.084561, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Epoch:129, time:10.295613, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Epoch:128, time:10.320318, test_Acc: 31.68, test_bacc: 33.34, test_f1: 23.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Epoch:127, time:9.348463, test_Acc: 30.91, test_bacc: 32.47, test_f1: 22.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Epoch:126, time:13.038638, test_Acc: 30.91, test_bacc: 32.47, test_f1: 22.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Epoch:125, time:16.398715, test_Acc: 30.91, test_bacc: 32.47, test_f1: 22.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Epoch:124, time:13.902860, test_Acc: 30.91, test_bacc: 32.47, test_f1: 22.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Epoch:123, time:16.276141, test_Acc: 30.91, test_bacc: 32.47, test_f1: 22.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Epoch:122, time:15.854877, test_Acc: 30.91, test_bacc: 32.47, test_f1: 22.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Epoch:121, time:15.375845, test_Acc: 30.91, test_bacc: 32.47, test_f1: 22.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Epoch:120, time:8.011729, test_Acc: 30.91, test_bacc: 32.47, test_f1: 22.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Epoch:119, time:7.820963, test_Acc: 30.91, test_bacc: 32.47, test_f1: 22.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Epoch:118, time:7.658990, test_Acc: 31.13, test_bacc: 32.83, test_f1: 21.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Epoch:117, time:7.552179, test_Acc: 31.13, test_bacc: 32.83, test_f1: 21.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Epoch:116, time:7.945540, test_Acc: 31.13, test_bacc: 32.83, test_f1: 21.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Epoch:115, time:8.520636, test_Acc: 31.13, test_bacc: 32.83, test_f1: 21.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Epoch:114, time:8.533919, test_Acc: 31.13, test_bacc: 32.83, test_f1: 21.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Epoch:113, time:7.390049, test_Acc: 31.13, test_bacc: 32.83, test_f1: 21.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Epoch:112, time:7.494015, test_Acc: 31.13, test_bacc: 32.83, test_f1: 21.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Epoch:111, time:7.617399, test_Acc: 31.13, test_bacc: 32.83, test_f1: 21.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Epoch:110, time:7.480811, test_Acc: 31.13, test_bacc: 32.83, test_f1: 21.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Epoch:109, time:7.942353, test_Acc: 29.64, test_bacc: 31.30, test_f1: 21.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Epoch:108, time:8.497154, test_Acc: 29.51, test_bacc: 31.19, test_f1: 21.17</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Epoch:107, time:7.449649, test_Acc: 27.18, test_bacc: 29.01, test_f1: 19.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Epoch:106, time:7.441393, test_Acc: 27.18, test_bacc: 29.01, test_f1: 19.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Epoch:105, time:7.440572, test_Acc: 27.18, test_bacc: 29.07, test_f1: 19.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Epoch:104, time:7.544001, test_Acc: 27.18, test_bacc: 29.07, test_f1: 19.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Epoch:103, time:8.522535, test_Acc: 24.37, test_bacc: 26.35, test_f1: 18.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Epoch:102, time:8.211174, test_Acc: 26.79, test_bacc: 28.67, test_f1: 19.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Epoch:101, time:7.499985, test_Acc: 23.06, test_bacc: 25.17, test_f1: 17.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Epoch:100, time:8.238590, test_Acc: 24.29, test_bacc: 26.30, test_f1: 16.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Epoch:99, time:8.085259, test_Acc: 24.29, test_bacc: 26.30, test_f1: 16.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Epoch:98, time:7.471524, test_Acc: 24.29, test_bacc: 26.30, test_f1: 16.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Epoch:97, time:8.198534, test_Acc: 24.29, test_bacc: 26.30, test_f1: 16.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Epoch:96, time:8.201899, test_Acc: 24.29, test_bacc: 26.30, test_f1: 16.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Epoch:95, time:7.551825, test_Acc: 22.08, test_bacc: 24.22, test_f1: 15.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Epoch:94, time:7.438933, test_Acc: 22.08, test_bacc: 24.22, test_f1: 15.77</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Epoch:93, time:7.560146, test_Acc: 22.42, test_bacc: 24.50, test_f1: 15.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Epoch:92, time:7.494411, test_Acc: 24.54, test_bacc: 26.58, test_f1: 16.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Epoch:91, time:8.254307, test_Acc: 24.54, test_bacc: 26.58, test_f1: 16.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Epoch:90, time:8.394744, test_Acc: 20.72, test_bacc: 23.01, test_f1: 14.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Epoch:89, time:8.544368, test_Acc: 21.19, test_bacc: 23.47, test_f1: 14.56</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Epoch:88, time:8.273216, test_Acc: 18.64, test_bacc: 21.19, test_f1: 12.94</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Epoch:87, time:7.612064, test_Acc: 21.44, test_bacc: 23.62, test_f1: 14.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Epoch:86, time:7.430092, test_Acc: 19.07, test_bacc: 21.62, test_f1: 13.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Epoch:85, time:8.032021, test_Acc: 19.02, test_bacc: 21.45, test_f1: 13.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Epoch:84, time:8.297916, test_Acc: 17.71, test_bacc: 20.20, test_f1: 12.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Epoch:83, time:7.465110, test_Acc: 17.71, test_bacc: 20.20, test_f1: 12.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Epoch:82, time:7.609713, test_Acc: 14.82, test_bacc: 17.67, test_f1: 9.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Epoch:81, time:7.602577, test_Acc: 14.82, test_bacc: 17.67, test_f1: 9.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Epoch:80, time:7.624456, test_Acc: 14.27, test_bacc: 17.17, test_f1: 9.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Epoch:79, time:7.488302, test_Acc: 14.27, test_bacc: 17.17, test_f1: 9.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Epoch:78, time:7.441057, test_Acc: 14.27, test_bacc: 17.17, test_f1: 9.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Epoch:77, time:7.582210, test_Acc: 14.31, test_bacc: 17.59, test_f1: 9.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Epoch:76, time:8.344178, test_Acc: 13.93, test_bacc: 16.83, test_f1: 8.58</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Epoch:75, time:8.592759, test_Acc: 13.46, test_bacc: 16.28, test_f1: 7.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Epoch:74, time:8.470102, test_Acc: 13.46, test_bacc: 16.28, test_f1: 7.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Epoch:73, time:8.549420, test_Acc: 13.59, test_bacc: 16.81, test_f1: 8.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Epoch:72, time:7.483356, test_Acc: 13.21, test_bacc: 16.16, test_f1: 7.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Epoch:71, time:8.215733, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Epoch:70, time:8.432873, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Epoch:69, time:8.374553, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Epoch:68, time:7.558578, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Epoch:67, time:7.599049, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Epoch:66, time:7.323286, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Epoch:65, time:7.368373, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Epoch:64, time:7.408423, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Epoch:63, time:7.441086, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Epoch:62, time:7.274692, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Epoch:61, time:7.633081, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Epoch:60, time:7.514128, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Epoch:59, time:7.517879, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Epoch:58, time:7.425194, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Epoch:57, time:7.586895, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Epoch:56, time:7.938168, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Epoch:55, time:8.439715, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Epoch:54, time:9.679505, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Epoch:53, time:8.118197, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Epoch:52, time:8.297228, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Epoch:51, time:8.196886, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Epoch:50, time:7.373548, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Epoch:49, time:7.880930, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Epoch:48, time:7.871210, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Epoch:47, time:7.427648, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Epoch:46, time:7.649435, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Epoch:45, time:7.597833, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Epoch:44, time:7.477312, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Epoch:43, time:8.075103, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Epoch:42, time:8.006174, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Epoch:41, time:7.336544, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Epoch:40, time:7.470911, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Epoch:39, time:7.734947, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Epoch:38, time:8.250650, test_Acc: 13.46, test_bacc: 15.04, test_f1: 6.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Epoch:37, time:7.787627, test_Acc: 13.63, test_bacc: 15.06, test_f1: 6.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Epoch:36, time:8.523551, test_Acc: 13.63, test_bacc: 15.06, test_f1: 6.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Epoch:35, time:8.454893, test_Acc: 13.93, test_bacc: 15.33, test_f1: 6.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Epoch:34, time:7.712391, test_Acc: 13.89, test_bacc: 15.07, test_f1: 5.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Epoch:33, time:7.367326, test_Acc: 13.46, test_bacc: 14.44, test_f1: 4.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Epoch:32, time:7.388333, test_Acc: 13.46, test_bacc: 14.44, test_f1: 4.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Epoch:31, time:7.354285, test_Acc: 12.74, test_bacc: 13.71, test_f1: 3.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Epoch:30, time:7.598154, test_Acc: 12.74, test_bacc: 13.71, test_f1: 3.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Epoch:29, time:7.372099, test_Acc: 12.74, test_bacc: 13.71, test_f1: 3.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Epoch:28, time:8.064713, test_Acc: 12.74, test_bacc: 13.71, test_f1: 3.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Epoch:27, time:7.471113, test_Acc: 12.74, test_bacc: 13.71, test_f1: 3.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Epoch:26, time:7.584134, test_Acc: 12.74, test_bacc: 13.71, test_f1: 3.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Epoch:25, time:8.082958, test_Acc: 12.74, test_bacc: 13.71, test_f1: 3.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Epoch:24, time:8.176966, test_Acc: 12.74, test_bacc: 13.71, test_f1: 3.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Epoch:23, time:8.526020, test_Acc: 12.74, test_bacc: 13.71, test_f1: 3.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Epoch:22, time:7.588764, test_Acc: 12.74, test_bacc: 13.71, test_f1: 3.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Epoch:21, time:8.258315, test_Acc: 12.74, test_bacc: 13.71, test_f1: 3.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Epoch:20, time:7.432264, test_Acc: 12.74, test_bacc: 13.71, test_f1: 3.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Epoch:19, time:7.447561, test_Acc: 12.74, test_bacc: 13.71, test_f1: 3.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Epoch:18, time:7.729643, test_Acc: 10.96, test_bacc: 14.29, test_f1: 4.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Epoch:17, time:7.920768, test_Acc: 10.96, test_bacc: 14.29, test_f1: 4.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Epoch:16, time:7.905285, test_Acc: 10.02, test_bacc: 15.07, test_f1: 5.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Epoch:15, time:8.152626, test_Acc: 8.20, test_bacc: 15.48, test_f1: 4.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Epoch:14, time:7.843626, test_Acc: 6.50, test_bacc: 14.59, test_f1: 2.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Epoch:13, time:7.457661, test_Acc: 6.50, test_bacc: 14.59, test_f1: 2.52</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Epoch:12, time:7.781182, test_Acc: 6.37, test_bacc: 14.50, test_f1: 2.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Epoch:11, time:7.692727, test_Acc: 6.11, test_bacc: 14.29, test_f1: 1.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Epoch:10, time:8.296474, test_Acc: 6.11, test_bacc: 14.29, test_f1: 1.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Epoch:9, time:8.562564, test_Acc: 6.11, test_bacc: 14.29, test_f1: 1.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Epoch:8, time:8.446253, test_Acc: 6.11, test_bacc: 14.29, test_f1: 1.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Epoch:7, time:7.415337, test_Acc: 6.11, test_bacc: 14.29, test_f1: 1.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Epoch:6, time:7.806601, test_Acc: 6.11, test_bacc: 14.29, test_f1: 1.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Epoch:5, time:7.967350, test_Acc: 6.11, test_bacc: 14.29, test_f1: 1.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Epoch:4, time:8.109930, test_Acc: 6.11, test_bacc: 14.29, test_f1: 1.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Epoch:3, time:8.269574, test_Acc: 6.11, test_bacc: 14.29, test_f1: 1.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Epoch:2, time:8.460926, test_Acc: 6.11, test_bacc: 14.29, test_f1: 1.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Epoch:1, time:8.080904, test_Acc: 6.11, test_bacc: 14.29, test_f1: 1.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Epoch:0, time:7.734218, test_Acc: 6.11, test_bacc: 14.29, test_f1: 1.65</t>
         </is>
       </c>
     </row>

--- a/TrueAug_SymDiGCN__output.xlsx
+++ b/TrueAug_SymDiGCN__output.xlsx
@@ -943,7 +943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,19 +961,138 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:2, time:8.086060, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:19, time:7.391010, test_Acc: 29.21, test_bacc: 14.22, test_f1: 6.47</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:1, time:8.753417, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:18, time:7.164226, test_Acc: 29.21, test_bacc: 14.22, test_f1: 6.47</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
+        <is>
+          <t>Epoch:17, time:7.342949, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Epoch:16, time:7.547536, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Epoch:15, time:7.380772, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Epoch:14, time:7.896408, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Epoch:13, time:8.090968, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Epoch:12, time:7.485302, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Epoch:11, time:7.430863, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Epoch:10, time:8.145068, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Epoch:9, time:8.412657, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Epoch:8, time:7.955161, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Epoch:7, time:7.803259, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Epoch:6, time:7.396874, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Epoch:5, time:7.759515, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Epoch:4, time:7.615851, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Epoch:3, time:8.232957, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Epoch:2, time:8.086060, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Epoch:1, time:8.753417, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>Epoch:0, time:8.985257, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
         </is>

--- a/TrueAug_SymDiGCN__output.xlsx
+++ b/TrueAug_SymDiGCN__output.xlsx
@@ -943,7 +943,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,140 +961,189 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Epoch:19, time:7.391010, test_Acc: 29.21, test_bacc: 14.22, test_f1: 6.47</t>
+          <t>Epoch:26, time:2663.819551, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Epoch:18, time:7.164226, test_Acc: 29.21, test_bacc: 14.22, test_f1: 6.47</t>
+          <t>Epoch:25, time:2674.925971, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Epoch:17, time:7.342949, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:24, time:2678.747638, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Epoch:16, time:7.547536, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:23, time:2660.462411, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epoch:15, time:7.380772, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:22, time:2692.946274, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Epoch:14, time:7.896408, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:21, time:2882.205356, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Epoch:13, time:8.090968, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:20, time:3297.141382, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Epoch:12, time:7.485302, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:19, time:2295.916577, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Epoch:11, time:7.430863, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:18, time:2166.226840, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Epoch:10, time:8.145068, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:17, time:2139.597554, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Epoch:9, time:8.412657, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:16, time:2147.163471, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Epoch:8, time:7.955161, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:15, time:2139.808543, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Epoch:7, time:7.803259, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:14, time:2170.615746, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Epoch:6, time:7.396874, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:13, time:2165.870954, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Epoch:5, time:7.759515, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:12, time:2236.390482, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Epoch:4, time:7.615851, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:11, time:2235.000865, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Epoch:3, time:8.232957, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:10, time:2231.099458, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Epoch:2, time:8.086060, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:9, time:2227.822404, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Epoch:1, time:8.753417, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:8, time:2225.134119, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Epoch:0, time:8.985257, test_Acc: 29.34, test_bacc: 14.29, test_f1: 6.48</t>
+          <t>Epoch:7, time:2218.566828, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Epoch:6, time:2239.500757, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Epoch:5, time:2324.290004, test_Acc: 22.47, test_bacc: 10.85, test_f1: 5.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Epoch:4, time:2690.262167, test_Acc: 21.17, test_bacc: 10.68, test_f1: 7.06</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Epoch:3, time:2840.416471, test_Acc: 6.67, test_bacc: 10.00, test_f1: 1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Epoch:2, time:3574.429714, test_Acc: 6.67, test_bacc: 10.00, test_f1: 1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Epoch:1, time:2431.277493, test_Acc: 6.67, test_bacc: 10.00, test_f1: 1.25</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Epoch:0, time:2110.747376, test_Acc: 6.67, test_bacc: 10.00, test_f1: 1.25</t>
         </is>
       </c>
     </row>
